--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/132.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/132.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1869480610681661</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.250775521958468</v>
+        <v>-1.263410778137191</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1062292230142293</v>
+        <v>-0.08112953628341789</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1882839257232982</v>
+        <v>-0.1972851222037503</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1753537697944549</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.337668824040808</v>
+        <v>-1.360016320120256</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1971026161923868</v>
+        <v>-0.1769437322012103</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1908798912289339</v>
+        <v>-0.2015090413307492</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1684700182007177</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.461583105516229</v>
+        <v>-1.492927417931857</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.210307291126565</v>
+        <v>-0.1785833662073008</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1998621070842042</v>
+        <v>-0.2233659612516524</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1675744086504903</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.633278920814728</v>
+        <v>-1.659276537121449</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2124141405217463</v>
+        <v>-0.1831314160104814</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1915150121484792</v>
+        <v>-0.2115848332061101</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1712537910575111</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.749043213846697</v>
+        <v>-1.764867215055966</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2216635451776529</v>
+        <v>-0.1925779271586607</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1993656907332952</v>
+        <v>-0.2142479609239276</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1771211558120976</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.603146448314555</v>
+        <v>-1.626445895749276</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1373851892261301</v>
+        <v>-0.09494743141577781</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1723314402820298</v>
+        <v>-0.1955082436771144</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1833839430770922</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.418938020876968</v>
+        <v>-1.430400858438692</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06064944171224157</v>
+        <v>-0.02063390368470686</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1530018636064895</v>
+        <v>-0.1735695610631204</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1892286866983883</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.179912087866214</v>
+        <v>-1.213885946893568</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06321811822427062</v>
+        <v>0.1102783882904398</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1488232059703088</v>
+        <v>-0.1666051316694858</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1934422519867376</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8134794383465849</v>
+        <v>-0.8561537239476643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1575007236946999</v>
+        <v>0.1950911218432352</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1218750983564069</v>
+        <v>-0.1368289109034938</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1934991473760538</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4645498453407695</v>
+        <v>-0.5020380401229413</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1645045743867889</v>
+        <v>0.1797284958306939</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05771036490524236</v>
+        <v>-0.07027553877560262</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1848600632707049</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05121652291700111</v>
+        <v>0.03514869367655089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1517700349378832</v>
+        <v>0.1507290206490653</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05007914545418324</v>
+        <v>0.04513104247409366</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1624305642353856</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5452515353896866</v>
+        <v>0.521242504582784</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09212415032808104</v>
+        <v>0.09553920281271648</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1911183309878726</v>
+        <v>0.1870360365256919</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1231585311355949</v>
       </c>
       <c r="E14" t="n">
-        <v>1.105280721571445</v>
+        <v>1.09013564272445</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01237003149016363</v>
+        <v>-0.02535277911452378</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3068154618076597</v>
+        <v>0.2985063281222983</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.06675125470368111</v>
       </c>
       <c r="E15" t="n">
-        <v>1.738957653554821</v>
+        <v>1.714361683415373</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1505898641603083</v>
+        <v>-0.1639040427013048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5093109915838782</v>
+        <v>0.5159585905417854</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.004852511870517641</v>
       </c>
       <c r="E16" t="n">
-        <v>2.418480095592729</v>
+        <v>2.387651180153192</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3252627175161705</v>
+        <v>-0.310735239011629</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6359088414503896</v>
+        <v>0.6374696328595709</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.08953283512755368</v>
       </c>
       <c r="E17" t="n">
-        <v>3.057743171571921</v>
+        <v>3.043335417010834</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4601419601543161</v>
+        <v>-0.4445705472647749</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7808930769257143</v>
+        <v>0.779984927013169</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1844319320588333</v>
       </c>
       <c r="E18" t="n">
-        <v>3.680919437685481</v>
+        <v>3.649017386899126</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6016731818946418</v>
+        <v>-0.5882801607567363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9510354010554868</v>
+        <v>0.9580188110743031</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2880571243656131</v>
       </c>
       <c r="E19" t="n">
-        <v>4.203821060963523</v>
+        <v>4.158955243177989</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7586794533505087</v>
+        <v>-0.751110564047238</v>
       </c>
       <c r="G19" t="n">
-        <v>1.077371902313726</v>
+        <v>1.072396058419909</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3988955689076845</v>
       </c>
       <c r="E20" t="n">
-        <v>4.700031545091662</v>
+        <v>4.63493968110277</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9421943579449139</v>
+        <v>-0.9303183267734626</v>
       </c>
       <c r="G20" t="n">
-        <v>1.233684650926411</v>
+        <v>1.246243984604408</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5149273536236827</v>
       </c>
       <c r="E21" t="n">
-        <v>5.20581702459998</v>
+        <v>5.145763786572815</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.140118477148497</v>
+        <v>-1.135428802680498</v>
       </c>
       <c r="G21" t="n">
-        <v>1.398531380630458</v>
+        <v>1.408189598751818</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6324116525860843</v>
       </c>
       <c r="E22" t="n">
-        <v>5.601478376851511</v>
+        <v>5.538408679468528</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.3347312072819</v>
+        <v>-1.331009544698173</v>
       </c>
       <c r="G22" t="n">
-        <v>1.519613168809516</v>
+        <v>1.529547336020059</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7445555724705163</v>
       </c>
       <c r="E23" t="n">
-        <v>5.860483607938259</v>
+        <v>5.788174726236006</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.530801065410029</v>
+        <v>-1.530003879152392</v>
       </c>
       <c r="G23" t="n">
-        <v>1.661686068391569</v>
+        <v>1.674455648994656</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.842166383166791</v>
       </c>
       <c r="E24" t="n">
-        <v>6.155325719416362</v>
+        <v>6.072962946560112</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.677835208404989</v>
+        <v>-1.677765126096626</v>
       </c>
       <c r="G24" t="n">
-        <v>1.810045935053074</v>
+        <v>1.832492714402705</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9188762188428754</v>
       </c>
       <c r="E25" t="n">
-        <v>6.289618022721962</v>
+        <v>6.186889039045626</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.838643445089582</v>
+        <v>-1.847551198492216</v>
       </c>
       <c r="G25" t="n">
-        <v>1.851590143431791</v>
+        <v>1.855711859192426</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9712036224774857</v>
       </c>
       <c r="E26" t="n">
-        <v>6.361285943312307</v>
+        <v>6.229447980847524</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.888401154003705</v>
+        <v>-1.88662573552516</v>
       </c>
       <c r="G26" t="n">
-        <v>1.86053877818097</v>
+        <v>1.856722212471335</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.999831983635072</v>
       </c>
       <c r="E27" t="n">
-        <v>6.377707104190756</v>
+        <v>6.226973199333433</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.956184616648187</v>
+        <v>-1.95066928498478</v>
       </c>
       <c r="G27" t="n">
-        <v>1.958429162484034</v>
+        <v>1.949159317154855</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.006665339830604</v>
       </c>
       <c r="E28" t="n">
-        <v>6.46945798627155</v>
+        <v>6.316354423362682</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.03287145255103</v>
+        <v>-2.028192728443713</v>
       </c>
       <c r="G28" t="n">
-        <v>2.00593328716984</v>
+        <v>1.990059644325481</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9933717859081359</v>
       </c>
       <c r="E29" t="n">
-        <v>6.366216525715306</v>
+        <v>6.205106059075894</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.085844917385379</v>
+        <v>-2.090042555646742</v>
       </c>
       <c r="G29" t="n">
-        <v>2.022060978382017</v>
+        <v>2.00127427371175</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9621577542421481</v>
       </c>
       <c r="E30" t="n">
-        <v>6.33931075949604</v>
+        <v>6.172729492659994</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.190810694736988</v>
+        <v>-2.213740019980663</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0515495696741</v>
+        <v>2.036970989486377</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9154896471057231</v>
       </c>
       <c r="E31" t="n">
-        <v>6.243057089102884</v>
+        <v>6.05716668626457</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.235555328530976</v>
+        <v>-2.283445635936827</v>
       </c>
       <c r="G31" t="n">
-        <v>1.991982527661207</v>
+        <v>1.963063355124579</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.857308766703355</v>
       </c>
       <c r="E32" t="n">
-        <v>6.046671860587119</v>
+        <v>5.848975508885717</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.265744012882649</v>
+        <v>-2.314507429046864</v>
       </c>
       <c r="G32" t="n">
-        <v>1.949280501146401</v>
+        <v>1.923116439357317</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7912225813529746</v>
       </c>
       <c r="E33" t="n">
-        <v>5.86538498937944</v>
+        <v>5.675235626259946</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.311237651347274</v>
+        <v>-2.373040757011393</v>
       </c>
       <c r="G33" t="n">
-        <v>1.933179090799859</v>
+        <v>1.9188472587395</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.720816799247833</v>
       </c>
       <c r="E34" t="n">
-        <v>5.629528820774048</v>
+        <v>5.438350123750464</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.397725790084387</v>
+        <v>-2.45760601241278</v>
       </c>
       <c r="G34" t="n">
-        <v>1.860280349668879</v>
+        <v>1.841615094874702</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6482206369080785</v>
       </c>
       <c r="E35" t="n">
-        <v>5.4360315673821</v>
+        <v>5.245620855654334</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.410282933690247</v>
+        <v>-2.47280511303914</v>
       </c>
       <c r="G35" t="n">
-        <v>1.800568762894986</v>
+        <v>1.786417976797899</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5757710810096232</v>
       </c>
       <c r="E36" t="n">
-        <v>5.243433703614152</v>
+        <v>5.051013965713295</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.387517133832753</v>
+        <v>-2.443867689901374</v>
       </c>
       <c r="G36" t="n">
-        <v>1.706712491467102</v>
+        <v>1.692275535944197</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5058641356108935</v>
       </c>
       <c r="E37" t="n">
-        <v>4.890256830711883</v>
+        <v>4.713001152283204</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.332307605347177</v>
+        <v>-2.387017067361617</v>
       </c>
       <c r="G37" t="n">
-        <v>1.612708755182036</v>
+        <v>1.602075224935948</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4392614977591079</v>
       </c>
       <c r="E38" t="n">
-        <v>4.683624984694121</v>
+        <v>4.525145524714527</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.222487898117343</v>
+        <v>-2.263899242119786</v>
       </c>
       <c r="G38" t="n">
-        <v>1.529230505584332</v>
+        <v>1.50915922447861</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3771914447209774</v>
       </c>
       <c r="E39" t="n">
-        <v>4.342822019362304</v>
+        <v>4.179560901884983</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.191186657120397</v>
+        <v>-2.233349925889658</v>
       </c>
       <c r="G39" t="n">
-        <v>1.417583548168725</v>
+        <v>1.402384447542365</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3200567039397741</v>
       </c>
       <c r="E40" t="n">
-        <v>4.018786246306481</v>
+        <v>3.842440177838438</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.135028827399776</v>
+        <v>-2.160617630241041</v>
       </c>
       <c r="G40" t="n">
-        <v>1.319991013676206</v>
+        <v>1.294933668340031</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2688087611235669</v>
       </c>
       <c r="E41" t="n">
-        <v>3.737683187363829</v>
+        <v>3.568910388343329</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.051165125106071</v>
+        <v>-2.071307948568247</v>
       </c>
       <c r="G41" t="n">
-        <v>1.206365691097418</v>
+        <v>1.178471472320608</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2247248040148221</v>
       </c>
       <c r="E42" t="n">
-        <v>3.435429871776274</v>
+        <v>3.242798426902235</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.943589511791963</v>
+        <v>-1.961318145735822</v>
       </c>
       <c r="G42" t="n">
-        <v>1.102962165203082</v>
+        <v>1.075009544502635</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1877724051670419</v>
       </c>
       <c r="E43" t="n">
-        <v>3.191813547567703</v>
+        <v>3.01506596587466</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.903474690494247</v>
+        <v>-1.929545309205512</v>
       </c>
       <c r="G43" t="n">
-        <v>1.005223625901472</v>
+        <v>0.9658738698033918</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1569557053003799</v>
       </c>
       <c r="E44" t="n">
-        <v>2.94186353474077</v>
+        <v>2.764397609387</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.863878916292848</v>
+        <v>-1.891861467979159</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8858121327384134</v>
+        <v>0.8474274684284236</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1303622130716031</v>
       </c>
       <c r="E45" t="n">
-        <v>2.678764328807114</v>
+        <v>2.495881625036072</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.733263014080156</v>
+        <v>-1.749541090245697</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7682709611798085</v>
+        <v>0.7383063942100894</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.105832522594235</v>
       </c>
       <c r="E46" t="n">
-        <v>2.467610713851807</v>
+        <v>2.294682617964581</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.663230347351629</v>
+        <v>-1.669489573517355</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7438078554166333</v>
+        <v>0.7158143533696408</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.08142683240173414</v>
       </c>
       <c r="E47" t="n">
-        <v>2.160140646435435</v>
+        <v>1.985588977071118</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.608741352598917</v>
+        <v>-1.621919746667459</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6195198016299395</v>
+        <v>0.5960378481838549</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.05659560542743416</v>
       </c>
       <c r="E48" t="n">
-        <v>2.004156408643204</v>
+        <v>1.84180490112652</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.552958755237659</v>
+        <v>-1.553742801062477</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5532350783507755</v>
+        <v>0.5266811837214189</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.03100345627582532</v>
       </c>
       <c r="E49" t="n">
-        <v>1.809294010286256</v>
+        <v>1.650458298572481</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.520595329254577</v>
+        <v>-1.535473219300936</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4800063663512496</v>
+        <v>0.4490022451408034</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.004864975730592827</v>
       </c>
       <c r="E50" t="n">
-        <v>1.703837656776103</v>
+        <v>1.545397618094964</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.409833160982061</v>
+        <v>-1.414162203571605</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4185193610988116</v>
+        <v>0.3943526450980908</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.02060620628704793</v>
       </c>
       <c r="E51" t="n">
-        <v>1.538694537309602</v>
+        <v>1.391444307197187</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.351307133257986</v>
+        <v>-1.357379473268075</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3461754382423765</v>
+        <v>0.3228059084992918</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.04479490822753213</v>
       </c>
       <c r="E52" t="n">
-        <v>1.432211769991539</v>
+        <v>1.300670197289211</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.29530260858691</v>
+        <v>-1.296606431532092</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2696251168360334</v>
+        <v>0.2542026288517648</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06644256599982874</v>
       </c>
       <c r="E53" t="n">
-        <v>1.217819768370597</v>
+        <v>1.080337259986361</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.247050939278559</v>
+        <v>-1.242775918468379</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2279816251871355</v>
+        <v>0.215115681410048</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.08470092287549935</v>
       </c>
       <c r="E54" t="n">
-        <v>1.262929414187312</v>
+        <v>1.150562653062888</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.238976873335834</v>
+        <v>-1.234012709826745</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1493784761649748</v>
+        <v>0.1281274762017987</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.09934373312321704</v>
       </c>
       <c r="E55" t="n">
-        <v>1.091016051723267</v>
+        <v>0.9687589248310274</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.209200652569842</v>
+        <v>-1.207683662603388</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09996168848007894</v>
+        <v>0.08048318689926598</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1101672104636274</v>
       </c>
       <c r="E56" t="n">
-        <v>1.070131523830909</v>
+        <v>0.9456522037443064</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.17577577162467</v>
+        <v>-1.176269267879396</v>
       </c>
       <c r="G56" t="n">
-        <v>0.062812224854998</v>
+        <v>0.04531500853354815</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1173848351832351</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9685223970403003</v>
+        <v>0.8422501378980615</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.140175419024043</v>
+        <v>-1.138512424248498</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03683650926964134</v>
+        <v>0.0145897565084655</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1216463843772309</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9056760870152262</v>
+        <v>0.7912564982749842</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.11872147237623</v>
+        <v>-1.122200766976866</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05292432726324365</v>
+        <v>-0.07563537531732846</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1238899254212062</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7933414469488018</v>
+        <v>0.6596696640818377</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.05001744941043</v>
+        <v>-1.060183764267428</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1248623567504061</v>
+        <v>-0.1439875266932192</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1251548255183534</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7884415255557122</v>
+        <v>0.6636585154662002</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9953897500890815</v>
+        <v>-1.004693176524352</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1516995007093989</v>
+        <v>-0.1745156722260292</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1265678163069461</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6654426942332907</v>
+        <v>0.5335813709990535</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9943793968101726</v>
+        <v>-1.007708175832078</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1944102875127511</v>
+        <v>-0.2209773225749258</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.128843562262876</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5926665971419466</v>
+        <v>0.4466807686762586</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9962526385108085</v>
+        <v>-1.001389087694625</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2655525907903684</v>
+        <v>-0.2897105465025437</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1326607402057407</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5420919913209602</v>
+        <v>0.398588244609817</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.058655093916246</v>
+        <v>-1.076845833080878</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2955463587219058</v>
+        <v>-0.3245531341439889</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.138217155356478</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4597803201478914</v>
+        <v>0.3095209309201136</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.025173271095528</v>
+        <v>-1.032207782797526</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.348762191539346</v>
+        <v>-0.3792187947157015</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1453117301549387</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3959061362668176</v>
+        <v>0.2385625937019508</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9711047701929971</v>
+        <v>-0.9672006015979072</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3785106713916108</v>
+        <v>-0.4030759805211496</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1535492153533648</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3469171426725581</v>
+        <v>0.1840546183240564</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.011388957069259</v>
+        <v>-1.017370774097712</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4000493008286959</v>
+        <v>-0.4263243262726888</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1622929021286927</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3681477019624615</v>
+        <v>0.2217004983000462</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.005563365186533</v>
+        <v>-0.9999991219120803</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4182867615322364</v>
+        <v>-0.4463824669455925</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1710238397582127</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2734650433151233</v>
+        <v>0.1240145207297088</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.047986522515976</v>
+        <v>-1.049015856420067</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4270528902700523</v>
+        <v>-0.4545981575531358</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1790104460788343</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2107588979067765</v>
+        <v>0.07769595509372128</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.084622049213058</v>
+        <v>-1.081907819812058</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4357357962666863</v>
+        <v>-0.464909017171133</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.185650764937979</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1772128329700582</v>
+        <v>0.04100640661727659</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.158519463238219</v>
+        <v>-1.159760504115492</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4761966489619482</v>
+        <v>-0.5046865673598496</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1905935280343566</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1143183413579842</v>
+        <v>-0.02123982364243397</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.28548524522364</v>
+        <v>-1.298589176839545</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5427617014745667</v>
+        <v>-0.5802703369300112</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1931668314737153</v>
       </c>
       <c r="E72" t="n">
-        <v>0.05973882362363519</v>
+        <v>-0.06752188807614881</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.324245141892993</v>
+        <v>-1.335557594501354</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5320989702666604</v>
+        <v>-0.5621277793523797</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1934586037263641</v>
       </c>
       <c r="E73" t="n">
-        <v>0.04702472484800224</v>
+        <v>-0.06940389006533013</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.321126479170812</v>
+        <v>-1.341967205620443</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5577344946468353</v>
+        <v>-0.5893693566325542</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1914562647165215</v>
       </c>
       <c r="E74" t="n">
-        <v>0.101896252200533</v>
+        <v>-0.01927605896016177</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.356564766433348</v>
+        <v>-1.375726437578434</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5686804751843779</v>
+        <v>-0.5953073722182798</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1873620360949323</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1323543154249793</v>
+        <v>0.030653205604643</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.423188220869603</v>
+        <v>-1.440349626130144</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5349781851019324</v>
+        <v>-0.576370548479194</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1812616347751384</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1755147970403314</v>
+        <v>0.07619940580053987</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.346548836529714</v>
+        <v>-1.354104585400167</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5341999794694781</v>
+        <v>-0.5756434445299214</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1730072468121601</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3063438662742963</v>
+        <v>0.2051187321315961</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.34209130970817</v>
+        <v>-1.350139094785259</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4584249435994075</v>
+        <v>-0.4846255065907641</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1629421354635138</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4123345973857223</v>
+        <v>0.3390372631259238</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.291360478741457</v>
+        <v>-1.301218723451272</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4758111962659483</v>
+        <v>-0.5066255112245763</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1512851467398815</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4930869371977006</v>
+        <v>0.4222191229611742</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.260198672337192</v>
+        <v>-1.262336182742283</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4256629244875072</v>
+        <v>-0.4501260302506824</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1380278150309303</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6156068727463041</v>
+        <v>0.5575539006036834</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.271867376679735</v>
+        <v>-1.279688854302732</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3887456085088807</v>
+        <v>-0.4106419497282385</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1233202733940658</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6477264706982045</v>
+        <v>0.5796604887481319</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.218778568046203</v>
+        <v>-1.218690965160749</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2997220962619047</v>
+        <v>-0.3220637521489896</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1069664123505785</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7535025747402671</v>
+        <v>0.6907701484662839</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.151198782110403</v>
+        <v>-1.156095783407311</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2818102262826367</v>
+        <v>-0.2972458546997235</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.08900907289706447</v>
       </c>
       <c r="E83" t="n">
-        <v>0.87786947112387</v>
+        <v>0.822346762322794</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.11729062524714</v>
+        <v>-1.12405648810041</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2206736325720168</v>
+        <v>-0.2341221355373768</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.06938548566132423</v>
       </c>
       <c r="E84" t="n">
-        <v>1.084740765028542</v>
+        <v>1.049521484979642</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.046428651202977</v>
+        <v>-1.061338662307336</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1895965089570251</v>
+        <v>-0.2030523121628397</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04816822397087285</v>
       </c>
       <c r="E85" t="n">
-        <v>1.162162735145157</v>
+        <v>1.134985399980983</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9438661130090044</v>
+        <v>-0.9428630599705501</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1326225123535859</v>
+        <v>-0.1449044368943098</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.02555818609873928</v>
       </c>
       <c r="E86" t="n">
-        <v>1.346727414316926</v>
+        <v>1.333886291357384</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8578576000697548</v>
+        <v>-0.8638890587332986</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06059687998096886</v>
+        <v>-0.07021567680387537</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.001721360339302752</v>
       </c>
       <c r="E87" t="n">
-        <v>1.442861360766627</v>
+        <v>1.440982278873628</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7675156643966882</v>
+        <v>-0.7836243749836838</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01609461417007172</v>
+        <v>-0.01714438874743507</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.0233493596877769</v>
       </c>
       <c r="E88" t="n">
-        <v>1.528566183702968</v>
+        <v>1.540791166368147</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6417982235289946</v>
+        <v>-0.6567637164608088</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01806759106101002</v>
+        <v>0.01412546121555653</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04919497815911127</v>
       </c>
       <c r="E89" t="n">
-        <v>1.613952716155491</v>
+        <v>1.640053995876665</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5449386331781115</v>
+        <v>-0.5678438676282872</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06803919702045115</v>
+        <v>0.07283107485481349</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07585074534667578</v>
       </c>
       <c r="E90" t="n">
-        <v>1.656464936418479</v>
+        <v>1.686556527572108</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4442785376465931</v>
+        <v>-0.472041352095222</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07942757212953899</v>
+        <v>0.07809600827063026</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1026562258755268</v>
       </c>
       <c r="E91" t="n">
-        <v>1.664890873951113</v>
+        <v>1.693345751194833</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2718030566675485</v>
+        <v>-0.2958471286286329</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1119632837873484</v>
+        <v>0.1173421009542561</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1282359545871884</v>
       </c>
       <c r="E92" t="n">
-        <v>1.668857824614112</v>
+        <v>1.685508213042835</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1342621463596763</v>
+        <v>-0.1615606655153963</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1361781813750692</v>
+        <v>0.1384470961083413</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1506052600711127</v>
       </c>
       <c r="E93" t="n">
-        <v>1.68729969205038</v>
+        <v>1.711294122376374</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0326826724510061</v>
+        <v>0.0131968706297386</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1203030784826189</v>
+        <v>0.1228800633630728</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1669692094547071</v>
       </c>
       <c r="E94" t="n">
-        <v>1.630876133577213</v>
+        <v>1.659255088320206</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1309862503637979</v>
+        <v>0.1015341602739876</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05845982149599917</v>
+        <v>0.06212892234845274</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1743798072330315</v>
       </c>
       <c r="E95" t="n">
-        <v>1.562756129847777</v>
+        <v>1.59555465016195</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2261886861314996</v>
+        <v>0.2114480406056854</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02196299936755442</v>
+        <v>0.03324917111027867</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1705269868064357</v>
       </c>
       <c r="E96" t="n">
-        <v>1.452519578887989</v>
+        <v>1.490086616267069</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2740578228400322</v>
+        <v>0.25507865770631</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0020523235518325</v>
+        <v>0.01503945132046538</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1547270483533178</v>
       </c>
       <c r="E97" t="n">
-        <v>1.311426371574935</v>
+        <v>1.342696221537927</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3301806114064716</v>
+        <v>0.315143576118203</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03389698054252149</v>
+        <v>-0.02917664506461366</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.126549935960524</v>
       </c>
       <c r="E98" t="n">
-        <v>1.196500146147148</v>
+        <v>1.238056034910592</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3455622180441948</v>
+        <v>0.3419529791634685</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04365302188597341</v>
+        <v>-0.03140467845134033</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.08832349745761392</v>
       </c>
       <c r="E99" t="n">
-        <v>1.044225890553916</v>
+        <v>1.07402109194509</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3502562726564662</v>
+        <v>0.3456892422281039</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09069431132696078</v>
+        <v>-0.08696972864705269</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04103022016843288</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9557528164372128</v>
+        <v>0.9873409568840225</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3034763318237516</v>
+        <v>0.307498764314205</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1353659427164033</v>
+        <v>-0.1399709343951294</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.008078237739525335</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8336781955563365</v>
+        <v>0.8633930943025103</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3474339996967398</v>
+        <v>0.3535793421113745</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09065781012468806</v>
+        <v>-0.08188292109832677</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05932554802008861</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6916724581864655</v>
+        <v>0.7156931693780955</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2849614619829384</v>
+        <v>0.2869252266652105</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1885043929850254</v>
+        <v>-0.1877480880739347</v>
       </c>
     </row>
   </sheetData>
